--- a/5sem/55/tables/comp.xlsx
+++ b/5sem/55/tables/comp.xlsx
@@ -372,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -393,7 +393,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>511</v>
       </c>
@@ -410,8 +410,12 @@
         <f>D2/2.35482004503095</f>
         <v>17.071368185789179</v>
       </c>
+      <c r="F2">
+        <f>C2*D2/A2/2.35482004503095</f>
+        <v>11.39204804570276</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>661</v>
       </c>
@@ -428,8 +432,12 @@
         <f t="shared" ref="E3:E5" si="0">D3/2.35482004503095</f>
         <v>19.237138776523622</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="1">C3*D3/A3/2.35482004503095</f>
+        <v>13.882171250229604</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1328</v>
       </c>
@@ -446,8 +454,12 @@
         <f t="shared" si="0"/>
         <v>29.811195190109459</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>21.570464953445917</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1275</v>
       </c>
@@ -463,6 +475,10 @@
       <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>31.170110070570288</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>25.962868152898544</v>
       </c>
     </row>
   </sheetData>
